--- a/Data/kosdaq/table7_1.xlsx
+++ b/Data/kosdaq/table7_1.xlsx
@@ -64,7 +64,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0013** </t>
+    <t>-0.0722**</t>
   </si>
 </sst>
 </file>
@@ -462,19 +462,19 @@
         <v>9073</v>
       </c>
       <c r="D2">
-        <v>1528</v>
+        <v>1338</v>
       </c>
       <c r="E2">
-        <v>1866</v>
+        <v>1956</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2327</v>
+        <v>2538</v>
       </c>
       <c r="H2">
-        <v>3352</v>
+        <v>3241</v>
       </c>
       <c r="I2" t="s">
         <v>15</v>
@@ -489,19 +489,19 @@
         <v>0.18</v>
       </c>
       <c r="D3">
-        <v>0.1421</v>
+        <v>0.1522</v>
       </c>
       <c r="E3">
-        <v>0.1902</v>
+        <v>0.1564</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.18</v>
+        <v>0.2087</v>
       </c>
       <c r="H3">
-        <v>0.1789</v>
+        <v>0.183</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
@@ -513,25 +513,25 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="D4">
-        <v>0.1252</v>
+        <v>0.1528</v>
       </c>
       <c r="E4">
-        <v>0.1603</v>
+        <v>0.1784</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.1498</v>
+        <v>0.1905</v>
       </c>
       <c r="H4">
-        <v>0.1238</v>
-      </c>
-      <c r="I4" t="s">
-        <v>16</v>
+        <v>0.1276</v>
+      </c>
+      <c r="I4">
+        <v>-0.0252</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -545,10 +545,10 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -572,13 +572,13 @@
         <v>-0.07000000000000001</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.3629</v>
       </c>
       <c r="E6">
-        <v>-0.0776</v>
+        <v>-0.397</v>
       </c>
       <c r="F6">
-        <v>-0.397</v>
+        <v>0.2077</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -596,7 +596,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -611,10 +611,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>-0.3076</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>-0.3076</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -628,19 +628,19 @@
         <v>115</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E8">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F8">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="G8">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="I8" t="s">
         <v>15</v>
@@ -652,22 +652,22 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="D9">
-        <v>0.3487</v>
+        <v>0.1904</v>
       </c>
       <c r="E9">
-        <v>0.1849</v>
+        <v>-0.0047</v>
       </c>
       <c r="F9">
-        <v>0.134</v>
+        <v>0.1772</v>
       </c>
       <c r="G9">
-        <v>0.1629</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0137</v>
+        <v>0.1445</v>
       </c>
       <c r="I9" t="s">
         <v>15</v>
@@ -679,25 +679,25 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.2293</v>
       </c>
       <c r="E10">
-        <v>-0.1543</v>
+        <v>0.122</v>
       </c>
       <c r="F10">
-        <v>0.2338</v>
+        <v>0.1919</v>
       </c>
       <c r="G10">
-        <v>-0.1343</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>-0.0118</v>
+        <v>0.0673</v>
       </c>
       <c r="I10">
-        <v>-0.0118</v>
+        <v>-0.162</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -711,19 +711,19 @@
         <v>1760</v>
       </c>
       <c r="D11">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="E11">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>736</v>
+        <v>460</v>
       </c>
       <c r="H11">
-        <v>352</v>
+        <v>621</v>
       </c>
       <c r="I11" t="s">
         <v>15</v>
@@ -738,19 +738,19 @@
         <v>0.08</v>
       </c>
       <c r="D12">
-        <v>0.0873</v>
+        <v>0.0791</v>
       </c>
       <c r="E12">
-        <v>0.1024</v>
+        <v>0.1234</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.09080000000000001</v>
+        <v>0.0697</v>
       </c>
       <c r="H12">
-        <v>0.06270000000000001</v>
+        <v>0.06370000000000001</v>
       </c>
       <c r="I12" t="s">
         <v>15</v>
@@ -762,25 +762,25 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="D13">
-        <v>0.1205</v>
+        <v>0.1294</v>
       </c>
       <c r="E13">
-        <v>0.0491</v>
+        <v>0.097</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.1064</v>
+        <v>0.1539</v>
       </c>
       <c r="H13">
-        <v>0.0667</v>
-      </c>
-      <c r="I13">
-        <v>-0.0538</v>
+        <v>0.0572</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -794,19 +794,19 @@
         <v>17</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14">
         <v>5</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I14" t="s">
         <v>15</v>
@@ -818,22 +818,22 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>-0.09</v>
+        <v>-0.04</v>
       </c>
       <c r="D15">
-        <v>-0.1098</v>
+        <v>-0.09030000000000001</v>
       </c>
       <c r="E15">
-        <v>0.0468</v>
+        <v>-0.0299</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>-0.3267</v>
       </c>
       <c r="G15">
-        <v>-0.1177</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>-0.09370000000000001</v>
+        <v>0.0013</v>
       </c>
       <c r="I15" t="s">
         <v>15</v>
@@ -845,25 +845,25 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>-0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>-0.0195</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>-0.515</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>-0.2945</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.3108</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.3303</v>
       </c>
     </row>
   </sheetData>
